--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_15.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5283674.776931893</v>
+        <v>5283674.776931894</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -759,7 +759,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>9.234466016111838</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>62.4162677022923</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D15" t="n">
-        <v>6.070819998298274</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.66067414728066</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>103.6238122925896</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>124.5388004963448</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,58 +2485,58 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,73 +2555,73 @@
         <v>241.014288877659</v>
       </c>
       <c r="C26" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.014288877659</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2634,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>35.89809207384387</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>79.69803384540009</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>202.2946864288974</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.34871926419866</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>85.45271878230729</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>140.6132203701226</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>130.8309467350026</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>31.42349649226721</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>94.41048699370604</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,55 +3752,55 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,25 +3819,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45190010589728</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W44" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>121.186763950509</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.83262261310035</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4386,31 +4386,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
         <v>234.810827406191</v>
@@ -4419,7 +4419,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C6" t="n">
-        <v>816.3871559026832</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4689,7 +4689,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,22 +5121,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5151,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5182,22 +5182,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>359.8579014620034</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C15" t="n">
-        <v>185.4048721808764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>735.8335372470253</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>735.8335372470253</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y15" t="n">
-        <v>528.0732384820715</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="16">
@@ -5452,22 +5452,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
         <v>19.28114311021272</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>587.3248651012614</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U17" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,46 +5598,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>929.0463735436861</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>929.0463735436861</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>726.8597789024521</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>498.6361606388412</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>263.4840524070985</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5707,10 +5707,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5838,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5868,13 +5868,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5944,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.710825578336</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>964.057155510636</v>
       </c>
       <c r="X26" t="n">
-        <v>720.608378866536</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.159602222436</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>593.6552238493339</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C27" t="n">
-        <v>419.2021945682069</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D27" t="n">
-        <v>419.2021945682069</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E27" t="n">
-        <v>259.9647395627514</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F27" t="n">
-        <v>259.9647395627514</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299843</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N27" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972852</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P27" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q27" t="n">
         <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>964.057155510636</v>
+        <v>883.5540910203329</v>
       </c>
       <c r="S27" t="n">
-        <v>964.057155510636</v>
+        <v>883.5540910203329</v>
       </c>
       <c r="T27" t="n">
-        <v>761.870560869402</v>
+        <v>681.3674963790988</v>
       </c>
       <c r="U27" t="n">
-        <v>761.870560869402</v>
+        <v>681.3674963790988</v>
       </c>
       <c r="V27" t="n">
-        <v>761.870560869402</v>
+        <v>681.3674963790988</v>
       </c>
       <c r="W27" t="n">
-        <v>761.870560869402</v>
+        <v>681.3674963790988</v>
       </c>
       <c r="X27" t="n">
-        <v>761.870560869402</v>
+        <v>473.515996173566</v>
       </c>
       <c r="Y27" t="n">
-        <v>761.870560869402</v>
+        <v>473.515996173566</v>
       </c>
     </row>
     <row r="28">
@@ -6415,16 +6415,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.5167634983092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>400.9678093150704</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.6047704292607</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,7 +6786,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>831.9046840611386</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>629.7180894199046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>401.4944711562937</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>932.3162499628916</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>730.1296553216575</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>501.9060370580465</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>501.9060370580465</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>501.9060370580465</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.0940480307835</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>728.9050472788936</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C42" t="n">
-        <v>554.4520179977666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>554.4520179977666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>395.2145629923111</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7527,13 +7527,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>728.9050472788936</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>728.9050472788936</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>728.9050472788936</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7597,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>501.9060370580465</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C45" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7731,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>953.1151124671005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>953.1151124671005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>953.1151124671005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>953.1151124671005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>953.1151124671005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>709.6663358230005</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X45" t="n">
-        <v>709.6663358230005</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y45" t="n">
-        <v>501.9060370580465</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,10 +8307,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0408247018198</v>
+        <v>368.5691090902117</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11388,10 +11388,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22595,13 +22595,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>201.2414235542941</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22832,13 +22832,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22875,13 +22875,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,10 +23066,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23081,7 +23081,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,19 +23391,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,7 +23546,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,13 +23574,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D15" t="n">
-        <v>141.3742455663405</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,16 +23628,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23710,7 +23710,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23747,7 +23747,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,25 +23774,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>247.4175514543149</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.49716000536247</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23947,13 +23947,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,16 +23972,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24017,16 +24017,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>102.1491729108879</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24184,10 +24184,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24254,10 +24254,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>48.16969849197095</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,13 +24443,13 @@
         <v>141.7195527858216</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275656</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24522,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>101.4454250893668</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>20.45980030724304</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24585,7 +24585,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,19 +24734,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412375</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.18446438566868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24765,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>140.4886632986675</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,10 +24968,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>25.91996327974476</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>40.85222436883518</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,13 +25126,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25369,13 +25369,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,22 +25518,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>140.2596746115706</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>270.8624047773015</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,10 +25685,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,25 +25707,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>112.6173122874866</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25837,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,28 +25910,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9120424101793</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>51.52173503780676</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>89.32521153954279</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611646</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611646</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611645</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="C4" t="n">
         <v>179.5324977039669</v>
@@ -26430,7 +26430,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26522,28 +26522,28 @@
         <v>-4609.728394514081</v>
       </c>
       <c r="C6" t="n">
-        <v>76159.70313703362</v>
+        <v>76159.70313703365</v>
       </c>
       <c r="D6" t="n">
         <v>76159.70313703365</v>
       </c>
       <c r="E6" t="n">
+        <v>109787.3031370337</v>
+      </c>
+      <c r="F6" t="n">
         <v>109787.3031370336</v>
-      </c>
-      <c r="F6" t="n">
-        <v>109787.3031370337</v>
       </c>
       <c r="G6" t="n">
         <v>109787.3031370337</v>
       </c>
       <c r="H6" t="n">
+        <v>109787.3031370337</v>
+      </c>
+      <c r="I6" t="n">
         <v>109787.3031370336</v>
       </c>
-      <c r="I6" t="n">
-        <v>109787.3031370337</v>
-      </c>
       <c r="J6" t="n">
-        <v>46727.36053792742</v>
+        <v>46727.36053792745</v>
       </c>
       <c r="K6" t="n">
         <v>109787.3031370337</v>
@@ -26555,7 +26555,7 @@
         <v>109787.3031370337</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
         <v>109787.3031370337</v>
@@ -26814,7 +26814,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="L4" t="n">
         <v>241.0142888776591</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,10 +35027,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,10 +35255,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798015</v>
+        <v>226.4350751681934</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38108,10 +38108,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
